--- a/src/test/resources/excels/TestData.xlsx
+++ b/src/test/resources/excels/TestData.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -21,6 +22,101 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+  <si>
+    <t>Username2</t>
+  </si>
+  <si>
+    <t>Username3</t>
+  </si>
+  <si>
+    <t>Username4</t>
+  </si>
+  <si>
+    <t>Username5</t>
+  </si>
+  <si>
+    <t>Username6</t>
+  </si>
+  <si>
+    <t>Username7</t>
+  </si>
+  <si>
+    <t>Username8</t>
+  </si>
+  <si>
+    <t>Username9</t>
+  </si>
+  <si>
+    <t>Username10</t>
+  </si>
+  <si>
+    <t>Username11</t>
+  </si>
+  <si>
+    <t>Username12</t>
+  </si>
+  <si>
+    <t>Username13</t>
+  </si>
+  <si>
+    <t>Username14</t>
+  </si>
+  <si>
+    <t>Username15</t>
+  </si>
+  <si>
+    <t>Password2</t>
+  </si>
+  <si>
+    <t>Password3</t>
+  </si>
+  <si>
+    <t>Password4</t>
+  </si>
+  <si>
+    <t>Password5</t>
+  </si>
+  <si>
+    <t>Password6</t>
+  </si>
+  <si>
+    <t>Password7</t>
+  </si>
+  <si>
+    <t>Password8</t>
+  </si>
+  <si>
+    <t>Password9</t>
+  </si>
+  <si>
+    <t>Password10</t>
+  </si>
+  <si>
+    <t>Password11</t>
+  </si>
+  <si>
+    <t>Password12</t>
+  </si>
+  <si>
+    <t>Password13</t>
+  </si>
+  <si>
+    <t>Password14</t>
+  </si>
+  <si>
+    <t>Password15</t>
+  </si>
+  <si>
+    <t>Selenium Test</t>
+  </si>
+  <si>
+    <t>password field</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -336,9 +432,147 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="15.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
